--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bdnf-Ntrk2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bdnf-Ntrk2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Ntrk2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3771826666666667</v>
+        <v>0.03885866666666667</v>
       </c>
       <c r="H2">
-        <v>1.131548</v>
+        <v>0.116576</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.09340097618505853</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.09340097618505853</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.132555</v>
+        <v>0.165174</v>
       </c>
       <c r="N2">
-        <v>0.397665</v>
+        <v>0.495522</v>
       </c>
       <c r="O2">
-        <v>0.002244436732931371</v>
+        <v>0.00279520163427027</v>
       </c>
       <c r="P2">
-        <v>0.002244436732931371</v>
+        <v>0.002795201634270271</v>
       </c>
       <c r="Q2">
-        <v>0.04999744838</v>
+        <v>0.006418441408000001</v>
       </c>
       <c r="R2">
-        <v>0.4499770354200001</v>
+        <v>0.057765972672</v>
       </c>
       <c r="S2">
-        <v>0.002244436732931371</v>
+        <v>0.0002610745612749142</v>
       </c>
       <c r="T2">
-        <v>0.002244436732931371</v>
+        <v>0.0002610745612749142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3771826666666667</v>
+        <v>0.03885866666666667</v>
       </c>
       <c r="H3">
-        <v>1.131548</v>
+        <v>0.116576</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.09340097618505853</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.09340097618505853</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>136.593814</v>
       </c>
       <c r="O3">
-        <v>0.7709408010078718</v>
+        <v>0.7705152387260491</v>
       </c>
       <c r="P3">
-        <v>0.7709408010078719</v>
+        <v>0.7705152387260492</v>
       </c>
       <c r="Q3">
-        <v>17.17360633823022</v>
+        <v>1.769284495651556</v>
       </c>
       <c r="R3">
-        <v>154.562457044072</v>
+        <v>15.923560460864</v>
       </c>
       <c r="S3">
-        <v>0.7709408010078718</v>
+        <v>0.0719668754624764</v>
       </c>
       <c r="T3">
-        <v>0.7709408010078719</v>
+        <v>0.07196687546247642</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3771826666666667</v>
+        <v>0.03885866666666667</v>
       </c>
       <c r="H4">
-        <v>1.131548</v>
+        <v>0.116576</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.09340097618505853</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.09340097618505853</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,208 @@
         <v>40.186605</v>
       </c>
       <c r="O4">
-        <v>0.2268147622591968</v>
+        <v>0.2266895596396806</v>
       </c>
       <c r="P4">
-        <v>0.2268147622591968</v>
+        <v>0.2266895596396806</v>
       </c>
       <c r="Q4">
+        <v>0.5205326293866667</v>
+      </c>
+      <c r="R4">
+        <v>4.68479366448</v>
+      </c>
+      <c r="S4">
+        <v>0.02117302616130722</v>
+      </c>
+      <c r="T4">
+        <v>0.02117302616130722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.3771826666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.131548</v>
+      </c>
+      <c r="I5">
+        <v>0.9065990238149415</v>
+      </c>
+      <c r="J5">
+        <v>0.9065990238149415</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.165174</v>
+      </c>
+      <c r="N5">
+        <v>0.495522</v>
+      </c>
+      <c r="O5">
+        <v>0.00279520163427027</v>
+      </c>
+      <c r="P5">
+        <v>0.002795201634270271</v>
+      </c>
+      <c r="Q5">
+        <v>0.062300769784</v>
+      </c>
+      <c r="R5">
+        <v>0.560706928056</v>
+      </c>
+      <c r="S5">
+        <v>0.002534127072995356</v>
+      </c>
+      <c r="T5">
+        <v>0.002534127072995356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3771826666666667</v>
+      </c>
+      <c r="H6">
+        <v>1.131548</v>
+      </c>
+      <c r="I6">
+        <v>0.9065990238149415</v>
+      </c>
+      <c r="J6">
+        <v>0.9065990238149415</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>45.53127133333334</v>
+      </c>
+      <c r="N6">
+        <v>136.593814</v>
+      </c>
+      <c r="O6">
+        <v>0.7705152387260491</v>
+      </c>
+      <c r="P6">
+        <v>0.7705152387260492</v>
+      </c>
+      <c r="Q6">
+        <v>17.17360633823022</v>
+      </c>
+      <c r="R6">
+        <v>154.562457044072</v>
+      </c>
+      <c r="S6">
+        <v>0.6985483632635727</v>
+      </c>
+      <c r="T6">
+        <v>0.6985483632635728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3771826666666667</v>
+      </c>
+      <c r="H7">
+        <v>1.131548</v>
+      </c>
+      <c r="I7">
+        <v>0.9065990238149415</v>
+      </c>
+      <c r="J7">
+        <v>0.9065990238149415</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>13.395535</v>
+      </c>
+      <c r="N7">
+        <v>40.186605</v>
+      </c>
+      <c r="O7">
+        <v>0.2266895596396806</v>
+      </c>
+      <c r="P7">
+        <v>0.2266895596396806</v>
+      </c>
+      <c r="Q7">
         <v>5.052563612726667</v>
       </c>
-      <c r="R4">
+      <c r="R7">
         <v>45.47307251454</v>
       </c>
-      <c r="S4">
-        <v>0.2268147622591968</v>
-      </c>
-      <c r="T4">
-        <v>0.2268147622591968</v>
+      <c r="S7">
+        <v>0.2055165334783734</v>
+      </c>
+      <c r="T7">
+        <v>0.2055165334783734</v>
       </c>
     </row>
   </sheetData>
